--- a/maven_use_base/target/classes/excel/reflect/excelReflectTest.xlsx
+++ b/maven_use_base/target/classes/excel/reflect/excelReflectTest.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13665" windowHeight="3330" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="3330" windowWidth="13665" xWindow="0" yWindow="2715"/>
   </bookViews>
   <sheets>
-    <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
-    <sheet name="接口测试用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口基本信息" r:id="rId1" sheetId="1"/>
+    <sheet name="接口测试用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口测试用例!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">接口基本信息!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">接口测试用例!$A$1:$E$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">接口基本信息!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>RequestData(接口请求参数)</t>
-  </si>
-  <si>
-    <t>ExpectedReponseData(期望响应数据)</t>
   </si>
   <si>
     <t>1</t>
@@ -217,12 +214,38 @@
   </si>
   <si>
     <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>ExpectedReponseData(期望响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualResponseData(实际响应数据)</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,19 +280,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -283,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -444,7 +467,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -453,13 +476,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -469,7 +492,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -478,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -487,7 +510,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,12 +520,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -533,7 +556,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -552,7 +575,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -564,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -573,15 +596,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.75" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.75" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="81.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
@@ -590,7 +613,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -778,26 +801,26 @@
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.75" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="70.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="72.75" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -808,30 +831,36 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -842,13 +871,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -859,13 +891,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -876,13 +911,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -893,13 +931,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -910,81 +951,96 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -995,18 +1051,21 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>